--- a/carezoom_frontend/entries3.xlsx
+++ b/carezoom_frontend/entries3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinabear/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinabear/carezoom_frontend/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="165">
   <si>
     <t>title</t>
   </si>
@@ -655,6 +655,12 @@
   <si>
     <t>hepatitis</t>
   </si>
+  <si>
+    <t>medicare</t>
+  </si>
+  <si>
+    <t>integration</t>
+  </si>
 </sst>
 </file>
 
@@ -1215,7 +1221,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM3" sqref="AM3"/>
+      <selection pane="bottomLeft" activeCell="AM5" sqref="AM5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1587,7 +1593,7 @@
         <v>86</v>
       </c>
       <c r="AM3" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AO3" s="3"/>
       <c r="AP3" s="3"/>
@@ -1697,7 +1703,9 @@
       <c r="AL4" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="AM4" s="3"/>
+      <c r="AM4" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="AO4" s="3"/>
       <c r="AP4" s="3"/>
       <c r="AQ4" s="3"/>
@@ -1796,7 +1804,9 @@
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
+      <c r="AM5" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="AN5" s="3"/>
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>

--- a/carezoom_frontend/entries3.xlsx
+++ b/carezoom_frontend/entries3.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="400">
   <si>
     <t>Tag/Filter</t>
   </si>
@@ -1543,6 +1543,9 @@
   <si>
     <t>hepatitis C financial Incentive appointment attendance no show rate</t>
   </si>
+  <si>
+    <t>Search Terms</t>
+  </si>
 </sst>
 </file>
 
@@ -2074,7 +2077,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2211,7 +2214,9 @@
         <v>108</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="31" t="s">
+        <v>399</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>39</v>
       </c>

--- a/carezoom_frontend/entries3.xlsx
+++ b/carezoom_frontend/entries3.xlsx
@@ -462,9 +462,6 @@
     <t>Epic achosp chc MD/DO 1 Mas</t>
   </si>
   <si>
-    <t>○ Development of a team-based workflow for Medicare wellness visits to increase access to the service and bill appropriately while allowing all clinicians to practice at the top of their licenses.</t>
-  </si>
-  <si>
     <t>Cynthia So-Armah MD</t>
   </si>
   <si>
@@ -591,9 +588,6 @@
   </si>
   <si>
     <t>Epic achosp 5 safety MD/DO SW Pharm NPs</t>
-  </si>
-  <si>
-    <t>o A financial incentive program to improve appointment attendance at a safety-net hospital-based primary care HCV treatment program.</t>
   </si>
   <si>
     <t>Kristen Lee MD</t>
@@ -723,9 +717,6 @@
     <t>MD/DO SW Epic 9 achosp commclinic</t>
   </si>
   <si>
-    <t xml:space="preserve">o Integration of behavioral health capabilities into primary care at a patient-centered medical home </t>
-  </si>
-  <si>
     <t>Stuart Pollack MD
 Jane Erb MD
 Janna Levi LICSW
@@ -840,9 +831,6 @@
     <t>achosp MD NP Epic MA 3</t>
   </si>
   <si>
-    <t>oA program to enhance hypertension management at an urban, academic primary care clinic</t>
-  </si>
-  <si>
     <t>Kristin Huang MD</t>
   </si>
   <si>
@@ -912,9 +900,6 @@
   </si>
   <si>
     <t>MD/DO NPs LPNs RNs commclinic</t>
-  </si>
-  <si>
-    <t>○ Development of a team-based care process at a small  suburban primary care practice</t>
   </si>
   <si>
     <t>Allison Landrey MD</t>
@@ -1012,9 +997,6 @@
   </si>
   <si>
     <t>Epic 4 achosp MD/DO MA pophealth iPads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">○ Collection of patient reported outcomes (PROs) in primary care in order to assess for unmet social determinants of health among Medicaid patients and to facilitate completion of a Health Risk Assessment among Medicare patients </t>
   </si>
   <si>
     <t>Blair Fosburgh MD</t>
@@ -1125,9 +1107,6 @@
     <t>achosp pophealth Epic 7 registry</t>
   </si>
   <si>
-    <t>○ Use of population health coordinators to optimize care for patients with uncontrolled diabetes and patients with diabetes overdue for health maintenance.</t>
-  </si>
-  <si>
     <t xml:space="preserve">○ Massachusetts General Hospital Internal Medicine Associates is located in Boston, MA
 ○ One of twelve primary care practices affiliated with Massachusetts General Hospital
 ○ Each primary care practice is organized into interprofessional healthcare teams called “pods” 
@@ -1211,9 +1190,6 @@
   </si>
   <si>
     <t>Epic achosp 5 safety MD/DO SW PA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oA program to improve opioid prescribing and management at a large academic primary care practice through development of practice guidelines, EMR modules, and a team-based management approach. </t>
   </si>
   <si>
     <t xml:space="preserve">o From 2008 to 2011, the number of Tufts primary care patients with opioids on their medication list grew from 1000 to almost 2000 patients. 
@@ -1504,9 +1480,6 @@
     <t xml:space="preserve">achosp intsys commorg </t>
   </si>
   <si>
-    <t>o	In 2014, the LAC+USC Medical Center Division of Primary Care began hiring Wellness Navigators similar to Community Health Workers or “Promotoras” who would be physically located in the clinic in order to increase patient referral and follow-up with The Wellness Center in addition to delivering clinic-based evidence-based programming to better address the burdens of disease and social determinants of health.</t>
-  </si>
-  <si>
     <t>Janina Morrison MD MPH</t>
   </si>
   <si>
@@ -1545,6 +1518,33 @@
   </si>
   <si>
     <t>Search Terms</t>
+  </si>
+  <si>
+    <t>Development of a team-based workflow for Medicare wellness visits to increase access to the service and bill appropriately while allowing all clinicians to practice at the top of their licenses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration of behavioral health capabilities into primary care at a patient-centered medical home </t>
+  </si>
+  <si>
+    <t>A program to enhance hypertension management at an urban, academic primary care clinic</t>
+  </si>
+  <si>
+    <t>Development of a team-based care process at a small  suburban primary care practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection of patient reported outcomes (PROs) in primary care in order to assess for unmet social determinants of health among Medicaid patients and to facilitate completion of a Health Risk Assessment among Medicare patients </t>
+  </si>
+  <si>
+    <t>Use of population health coordinators to optimize care for patients with uncontrolled diabetes and patients with diabetes overdue for health maintenance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A program to improve opioid prescribing and management at a large academic primary care practice through development of practice guidelines, EMR modules, and a team-based management approach. </t>
+  </si>
+  <si>
+    <t>In 2014, the LAC+USC Medical Center Division of Primary Care began hiring Wellness Navigators similar to Community Health Workers or “Promotoras” who would be physically located in the clinic in order to increase patient referral and follow-up with The Wellness Center in addition to delivering clinic-based evidence-based programming to better address the burdens of disease and social determinants of health.</t>
+  </si>
+  <si>
+    <t>A financial incentive program&lt;br&gt; to improve appointment attendance at a safety-net hospital-based &lt;br&gt;primary care HCV treatment program.</t>
   </si>
 </sst>
 </file>
@@ -2077,7 +2077,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2100,7 +2100,7 @@
         <v>38</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>39</v>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="31" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>39</v>
@@ -2337,97 +2337,97 @@
       <c r="D3" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="M3" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="N3" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="P3" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="R3" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="S3" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="T3" s="19" t="s">
         <v>61</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="W3" s="20">
         <v>0</v>
       </c>
       <c r="X3" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y3" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Z3" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="AA3" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AB3" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AC3" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AD3" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AE3" s="19" t="s">
         <v>167</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>168</v>
       </c>
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
       <c r="AH3" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="AI3" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>170</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>171</v>
       </c>
       <c r="AK3" s="18"/>
       <c r="AL3" s="19"/>
@@ -2439,106 +2439,106 @@
     </row>
     <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="30" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>399</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="G4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="L4" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="M4" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="N4" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="O4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="P4" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="Q4" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="R4" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="S4" s="19" t="s">
         <v>184</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>186</v>
       </c>
       <c r="T4" s="19" t="s">
         <v>82</v>
       </c>
       <c r="U4" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="W4" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="X4" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="Y4" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="Z4" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="Y4" s="19" t="s">
+      <c r="AA4" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AC4" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AD4" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="AC4" s="19" t="s">
+      <c r="AE4" s="19" t="s">
         <v>195</v>
-      </c>
-      <c r="AD4" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE4" s="19" t="s">
-        <v>197</v>
       </c>
       <c r="AF4" s="19"/>
       <c r="AG4" s="19"/>
       <c r="AH4" s="19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AI4" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AJ4" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AK4" s="18"/>
       <c r="AL4" s="19"/>
@@ -2550,89 +2550,89 @@
     </row>
     <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="G5" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="H5" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="L5" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="M5" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="N5" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="O5" s="19" t="s">
         <v>210</v>
-      </c>
-      <c r="M5" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="N5" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>213</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="S5" s="19"/>
       <c r="T5" s="19" t="s">
         <v>61</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="W5" s="23">
         <v>400000</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z5" s="19" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AC5" s="19" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AD5" s="19" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AE5" s="19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AF5" s="19"/>
       <c r="AG5" s="19"/>
@@ -2649,87 +2649,87 @@
     </row>
     <row r="6" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="H6" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="J6" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="K6" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>228</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="K6" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>232</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="Q6" s="19"/>
       <c r="R6" s="19" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="S6" s="19"/>
       <c r="T6" s="19" t="s">
         <v>61</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="W6" s="24">
         <v>2000</v>
       </c>
       <c r="X6" s="19"/>
       <c r="Y6" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z6" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC6" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="AD6" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="AA6" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD6" s="19" t="s">
-        <v>243</v>
-      </c>
       <c r="AE6" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
@@ -2746,87 +2746,87 @@
     </row>
     <row r="7" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
+        <v>241</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="J7" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="K7" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="L7" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="M7" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="N7" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="O7" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="P7" s="19" t="s">
         <v>253</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="N7" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>258</v>
       </c>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="X7" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y7" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z7" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="V7" s="19" t="s">
+      <c r="AA7" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="W7" s="20" t="s">
+      <c r="AB7" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="X7" s="19" t="s">
+      <c r="AC7" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="Y7" s="19" t="s">
+      <c r="AD7" s="19" t="s">
         <v>263</v>
       </c>
-      <c r="Z7" s="19" t="s">
+      <c r="AE7" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="AA7" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="AB7" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC7" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="AD7" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="AE7" s="19" t="s">
-        <v>269</v>
       </c>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
@@ -2843,95 +2843,95 @@
     </row>
     <row r="8" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="K8" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="L8" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="M8" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="N8" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="O8" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="P8" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="Q8" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="R8" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="S8" s="19" t="s">
         <v>280</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>284</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>286</v>
       </c>
       <c r="T8" s="19" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="V8" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="W8" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="X8" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y8" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z8" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA8" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB8" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="V8" s="19" t="s">
+      <c r="AC8" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="W8" s="20" t="s">
+      <c r="AD8" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="X8" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y8" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z8" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA8" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="AC8" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="AD8" s="19" t="s">
-        <v>295</v>
-      </c>
       <c r="AE8" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
@@ -2948,93 +2948,93 @@
     </row>
     <row r="9" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="R9" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="S9" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="T9" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>277</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="L9" s="19" t="s">
+      <c r="U9" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="V9" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>281</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>282</v>
-      </c>
-      <c r="P9" s="19" t="s">
+      <c r="W9" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="X9" s="19" t="s">
         <v>303</v>
       </c>
-      <c r="R9" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="W9" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>310</v>
-      </c>
       <c r="Y9" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z9" s="25"/>
       <c r="AA9" s="19" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AB9" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AC9" s="19" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="AD9" s="19" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
@@ -3051,89 +3051,89 @@
     </row>
     <row r="10" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>318</v>
+      <c r="E10" s="30" t="s">
+        <v>397</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="19" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="19" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="W10" s="24">
         <v>100000</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="Y10" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AC10" s="19" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AD10" s="19" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
@@ -3150,95 +3150,95 @@
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="H11" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="L11" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="M11" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="N11" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="O11" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="P11" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="G11" s="26" t="s">
+      <c r="Q11" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="I11" s="26" t="s">
+      <c r="R11" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="J11" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="K11" s="26" t="s">
+      <c r="S11" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="T11" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="U11" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="V11" s="26" t="s">
         <v>341</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="S11" s="26" t="s">
-        <v>346</v>
-      </c>
-      <c r="T11" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="U11" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="V11" s="26" t="s">
-        <v>349</v>
       </c>
       <c r="W11" s="28">
         <v>2000</v>
       </c>
       <c r="X11" s="26" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Y11" s="26" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Z11" s="26" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AA11" s="26" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="AB11" s="26" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="AC11" s="26" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="AD11" s="19"/>
       <c r="AE11" s="26" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
@@ -3255,93 +3255,93 @@
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>354</v>
+      </c>
+      <c r="G12" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="H12" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="I12" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="J12" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="K12" s="27" t="s">
         <v>359</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="L12" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="M12" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="N12" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="O12" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="P12" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="Q12" s="26" t="s">
         <v>365</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="R12" s="26" t="s">
         <v>366</v>
-      </c>
-      <c r="K12" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="M12" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="N12" s="26" t="s">
-        <v>370</v>
-      </c>
-      <c r="O12" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q12" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>374</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="26" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="V12" s="26" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="W12" s="28">
         <v>155000</v>
       </c>
       <c r="X12" s="26" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="Y12" s="26" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Z12" s="26" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="AA12" s="26" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="AB12" s="26" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="AC12" s="26" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="AD12" s="26" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="AE12" s="26" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
@@ -3358,46 +3358,46 @@
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="F13" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>381</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="L13" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="M13" s="26" t="s">
         <v>386</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="D13" s="26" t="s">
+      <c r="N13" s="26" t="s">
         <v>387</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>389</v>
-      </c>
-      <c r="G13" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="H13" s="26" t="s">
-        <v>390</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>392</v>
-      </c>
-      <c r="K13" s="26" t="s">
-        <v>393</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="M13" s="26" t="s">
-        <v>395</v>
-      </c>
-      <c r="N13" s="26" t="s">
-        <v>396</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>

--- a/carezoom_frontend/entries3.xlsx
+++ b/carezoom_frontend/entries3.xlsx
@@ -1523,6 +1523,9 @@
     <t>Development of a team-based workflow for Medicare wellness visits to increase access to the service and bill appropriately while allowing all clinicians to practice at the top of their licenses.</t>
   </si>
   <si>
+    <t>A financial incentive program to improve appointment attendance at a safety-net hospital-based primary care HCV treatment program.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Integration of behavioral health capabilities into primary care at a patient-centered medical home </t>
   </si>
   <si>
@@ -1542,9 +1545,6 @@
   </si>
   <si>
     <t>In 2014, the LAC+USC Medical Center Division of Primary Care began hiring Wellness Navigators similar to Community Health Workers or “Promotoras” who would be physically located in the clinic in order to increase patient referral and follow-up with The Wellness Center in addition to delivering clinic-based evidence-based programming to better address the burdens of disease and social determinants of health.</t>
-  </si>
-  <si>
-    <t>A financial incentive program&lt;br&gt; to improve appointment attendance at a safety-net hospital-based &lt;br&gt;primary care HCV treatment program.</t>
   </si>
 </sst>
 </file>
@@ -2449,7 +2449,7 @@
         <v>172</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F4" s="20" t="s">
         <v>173</v>
@@ -2560,7 +2560,7 @@
         <v>201</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>202</v>
@@ -2659,7 +2659,7 @@
         <v>223</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>224</v>
@@ -2756,7 +2756,7 @@
         <v>242</v>
       </c>
       <c r="E7" s="30" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>243</v>
@@ -2853,7 +2853,7 @@
         <v>267</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>268</v>
@@ -2958,7 +2958,7 @@
         <v>292</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>268</v>
@@ -3061,7 +3061,7 @@
         <v>310</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>224</v>
@@ -3370,7 +3370,7 @@
         <v>379</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>380</v>

--- a/carezoom_frontend/entries3.xlsx
+++ b/carezoom_frontend/entries3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="5720" windowWidth="28800" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -460,9 +460,6 @@
   </si>
   <si>
     <t>Epic achosp chc MD/DO 1 Mas</t>
-  </si>
-  <si>
-    <t>Cynthia So-Armah MD</t>
   </si>
   <si>
     <t>Meg Krasne MPH</t>
@@ -1546,6 +1543,9 @@
   <si>
     <t>In 2014, the LAC+USC Medical Center Division of Primary Care began hiring Wellness Navigators similar to Community Health Workers or “Promotoras” who would be physically located in the clinic in order to increase patient referral and follow-up with The Wellness Center in addition to delivering clinic-based evidence-based programming to better address the burdens of disease and social determinants of health.</t>
   </si>
+  <si>
+    <t>Cynthia So-Armah MD MPH</t>
+  </si>
 </sst>
 </file>
 
@@ -1702,7 +1702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1791,6 +1791,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2075,9 +2081,9 @@
   </sheetPr>
   <dimension ref="A1:AQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2100,7 +2106,7 @@
         <v>38</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>39</v>
@@ -2108,10 +2114,10 @@
       <c r="E1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="32" t="s">
         <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -2215,7 +2221,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>39</v>
@@ -2338,96 +2344,96 @@
         <v>143</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="33" t="s">
+        <v>399</v>
+      </c>
+      <c r="G3" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="M3" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="N3" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="O3" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="P3" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="R3" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="S3" s="19" t="s">
         <v>156</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>157</v>
       </c>
       <c r="T3" s="19" t="s">
         <v>61</v>
       </c>
       <c r="U3" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W3" s="20">
         <v>0</v>
       </c>
       <c r="X3" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y3" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Z3" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="AA3" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="AA3" s="19" t="s">
+      <c r="AB3" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="AB3" s="19" t="s">
+      <c r="AC3" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="AC3" s="19" t="s">
+      <c r="AD3" s="19" t="s">
         <v>165</v>
       </c>
-      <c r="AD3" s="19" t="s">
+      <c r="AE3" s="19" t="s">
         <v>166</v>
-      </c>
-      <c r="AE3" s="19" t="s">
-        <v>167</v>
       </c>
       <c r="AF3" s="19"/>
       <c r="AG3" s="19"/>
       <c r="AH3" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI3" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="AI3" s="19" t="s">
+      <c r="AJ3" s="19" t="s">
         <v>169</v>
-      </c>
-      <c r="AJ3" s="19" t="s">
-        <v>170</v>
       </c>
       <c r="AK3" s="18"/>
       <c r="AL3" s="19"/>
@@ -2439,106 +2445,106 @@
     </row>
     <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="30" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>391</v>
+      </c>
+      <c r="F4" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>392</v>
+      <c r="G4" s="20" t="s">
+        <v>144</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="H4" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I4" s="20" t="s">
+      <c r="J4" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="K4" s="19" t="s">
+      <c r="L4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="M4" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="N4" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="O4" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="P4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="Q4" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="R4" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="S4" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>184</v>
       </c>
       <c r="T4" s="19" t="s">
         <v>82</v>
       </c>
       <c r="U4" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="V4" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="W4" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="W4" s="22" t="s">
+      <c r="X4" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="Y4" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="Y4" s="19" t="s">
+      <c r="Z4" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="AA4" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AC4" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="AC4" s="19" t="s">
+      <c r="AD4" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AE4" s="19" t="s">
         <v>194</v>
-      </c>
-      <c r="AE4" s="19" t="s">
-        <v>195</v>
       </c>
       <c r="AF4" s="19"/>
       <c r="AG4" s="19"/>
       <c r="AH4" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI4" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="AI4" s="19" t="s">
+      <c r="AJ4" s="19" t="s">
         <v>197</v>
-      </c>
-      <c r="AJ4" s="19" t="s">
-        <v>198</v>
       </c>
       <c r="AK4" s="18"/>
       <c r="AL4" s="19"/>
@@ -2550,89 +2556,89 @@
     </row>
     <row r="5" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="G5" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="H5" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="L5" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="M5" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="N5" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="O5" s="19" t="s">
         <v>209</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>210</v>
       </c>
       <c r="P5" s="19"/>
       <c r="Q5" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S5" s="19"/>
       <c r="T5" s="19" t="s">
         <v>61</v>
       </c>
       <c r="U5" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V5" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="W5" s="23">
         <v>400000</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Y5" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z5" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC5" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="AC5" s="19" t="s">
+      <c r="AD5" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="AD5" s="19" t="s">
+      <c r="AE5" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="AE5" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="AF5" s="19"/>
       <c r="AG5" s="19"/>
@@ -2649,87 +2655,87 @@
     </row>
     <row r="6" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="E6" s="30" t="s">
-        <v>394</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>146</v>
+      <c r="J6" s="19" t="s">
+        <v>225</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="K6" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="K6" s="19" t="s">
+      <c r="L6" s="19" t="s">
         <v>227</v>
-      </c>
-      <c r="L6" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="O6" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="P6" s="19" t="s">
         <v>230</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>231</v>
       </c>
       <c r="Q6" s="19"/>
       <c r="R6" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="S6" s="19"/>
       <c r="T6" s="19" t="s">
         <v>61</v>
       </c>
       <c r="U6" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="V6" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="W6" s="24">
         <v>2000</v>
       </c>
       <c r="X6" s="19"/>
       <c r="Y6" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="Z6" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="Z6" s="19" t="s">
+      <c r="AA6" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="AA6" s="19" t="s">
+      <c r="AB6" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="AB6" s="19" t="s">
+      <c r="AC6" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="AC6" s="19" t="s">
+      <c r="AD6" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="AD6" s="19" t="s">
-        <v>239</v>
-      </c>
       <c r="AE6" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
@@ -2746,87 +2752,87 @@
     </row>
     <row r="7" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="J7" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="K7" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="L7" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="M7" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="N7" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="O7" s="19" t="s">
         <v>251</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="P7" s="19" t="s">
         <v>252</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>253</v>
       </c>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="V7" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="V7" s="19" t="s">
+      <c r="W7" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="W7" s="20" t="s">
+      <c r="X7" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="X7" s="19" t="s">
+      <c r="Y7" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="Y7" s="19" t="s">
+      <c r="Z7" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="Z7" s="19" t="s">
+      <c r="AA7" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="AA7" s="19" t="s">
+      <c r="AB7" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="AB7" s="19" t="s">
+      <c r="AC7" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="AC7" s="19" t="s">
+      <c r="AD7" s="19" t="s">
         <v>262</v>
       </c>
-      <c r="AD7" s="19" t="s">
+      <c r="AE7" s="19" t="s">
         <v>263</v>
-      </c>
-      <c r="AE7" s="19" t="s">
-        <v>264</v>
       </c>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
@@ -2843,95 +2849,95 @@
     </row>
     <row r="8" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="E8" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="J8" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="K8" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="L8" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="L8" s="19" t="s">
+      <c r="M8" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="N8" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="O8" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="P8" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="Q8" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="R8" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="S8" s="19" t="s">
         <v>279</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>280</v>
       </c>
       <c r="T8" s="19" t="s">
         <v>61</v>
       </c>
       <c r="U8" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="V8" s="19" t="s">
         <v>281</v>
       </c>
-      <c r="V8" s="19" t="s">
+      <c r="W8" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="W8" s="20" t="s">
+      <c r="X8" s="19" t="s">
         <v>283</v>
       </c>
-      <c r="X8" s="19" t="s">
+      <c r="Y8" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z8" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="Y8" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z8" s="19" t="s">
+      <c r="AA8" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="AA8" s="19" t="s">
+      <c r="AB8" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="AB8" s="19" t="s">
+      <c r="AC8" s="19" t="s">
         <v>287</v>
       </c>
-      <c r="AC8" s="19" t="s">
+      <c r="AD8" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="AD8" s="19" t="s">
-        <v>289</v>
-      </c>
       <c r="AE8" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
@@ -2948,93 +2954,93 @@
     </row>
     <row r="9" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="E9" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="L9" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="L9" s="19" t="s">
+      <c r="M9" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="N9" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="P9" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>275</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="P9" s="19" t="s">
+      <c r="Q9" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="R9" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="S9" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="T9" s="19" t="s">
         <v>298</v>
       </c>
-      <c r="T9" s="19" t="s">
+      <c r="U9" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="V9" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="V9" s="19" t="s">
+      <c r="W9" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="W9" s="20" t="s">
+      <c r="X9" s="19" t="s">
         <v>302</v>
       </c>
-      <c r="X9" s="19" t="s">
-        <v>303</v>
-      </c>
       <c r="Y9" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Z9" s="25"/>
       <c r="AA9" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="AB9" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC9" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="AB9" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC9" s="19" t="s">
+      <c r="AD9" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AE9" s="19" t="s">
         <v>306</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>307</v>
       </c>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
@@ -3051,89 +3057,89 @@
     </row>
     <row r="10" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>310</v>
-      </c>
       <c r="E10" s="30" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F10" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="H10" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="H10" s="19" t="s">
-        <v>146</v>
+      <c r="J10" s="19" t="s">
+        <v>225</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="K10" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>227</v>
-      </c>
       <c r="L10" s="19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="U10" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="V10" s="19" t="s">
         <v>316</v>
-      </c>
-      <c r="V10" s="19" t="s">
-        <v>317</v>
       </c>
       <c r="W10" s="24">
         <v>100000</v>
       </c>
       <c r="X10" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="Y10" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z10" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="Y10" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="Z10" s="19" t="s">
+      <c r="AA10" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="AA10" s="19" t="s">
+      <c r="AB10" s="19" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC10" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="AB10" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="AC10" s="19" t="s">
+      <c r="AD10" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="AD10" s="19" t="s">
-        <v>322</v>
-      </c>
       <c r="AE10" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
@@ -3150,95 +3156,95 @@
     </row>
     <row r="11" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26" t="s">
+        <v>322</v>
+      </c>
+      <c r="B11" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="C11" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="E11" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="F11" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="G11" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>224</v>
+      <c r="H11" s="26" t="s">
+        <v>145</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="I11" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="H11" s="26" t="s">
-        <v>146</v>
+      <c r="J11" s="27" t="s">
+        <v>225</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="K11" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="J11" s="27" t="s">
-        <v>226</v>
-      </c>
-      <c r="K11" s="26" t="s">
+      <c r="L11" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="M11" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="M11" s="26" t="s">
+      <c r="N11" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="O11" s="26" t="s">
         <v>333</v>
       </c>
-      <c r="O11" s="26" t="s">
+      <c r="P11" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="P11" s="26" t="s">
+      <c r="Q11" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="Q11" s="26" t="s">
+      <c r="R11" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="S11" s="26" t="s">
         <v>337</v>
       </c>
-      <c r="S11" s="26" t="s">
+      <c r="T11" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="T11" s="26" t="s">
+      <c r="U11" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="U11" s="26" t="s">
+      <c r="V11" s="26" t="s">
         <v>340</v>
-      </c>
-      <c r="V11" s="26" t="s">
-        <v>341</v>
       </c>
       <c r="W11" s="28">
         <v>2000</v>
       </c>
       <c r="X11" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y11" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="Y11" s="26" t="s">
+      <c r="Z11" s="26" t="s">
         <v>343</v>
       </c>
-      <c r="Z11" s="26" t="s">
+      <c r="AA11" s="26" t="s">
         <v>344</v>
       </c>
-      <c r="AA11" s="26" t="s">
+      <c r="AB11" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="AB11" s="26" t="s">
+      <c r="AC11" s="26" t="s">
         <v>346</v>
-      </c>
-      <c r="AC11" s="26" t="s">
-        <v>347</v>
       </c>
       <c r="AD11" s="19"/>
       <c r="AE11" s="26" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
@@ -3255,93 +3261,93 @@
     </row>
     <row r="12" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="C12" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="D12" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="E12" s="26" t="s">
         <v>352</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="F12" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="G12" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="H12" s="26" t="s">
         <v>355</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="I12" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="J12" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="K12" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="L12" s="26" t="s">
         <v>359</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="M12" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="M12" s="26" t="s">
+      <c r="N12" s="26" t="s">
         <v>361</v>
       </c>
-      <c r="N12" s="26" t="s">
+      <c r="O12" s="26" t="s">
         <v>362</v>
       </c>
-      <c r="O12" s="26" t="s">
+      <c r="P12" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="P12" s="26" t="s">
+      <c r="Q12" s="26" t="s">
         <v>364</v>
       </c>
-      <c r="Q12" s="26" t="s">
+      <c r="R12" s="26" t="s">
         <v>365</v>
-      </c>
-      <c r="R12" s="26" t="s">
-        <v>366</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="26" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="V12" s="26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="W12" s="28">
         <v>155000</v>
       </c>
       <c r="X12" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y12" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="Y12" s="26" t="s">
+      <c r="Z12" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="Z12" s="26" t="s">
+      <c r="AA12" s="26" t="s">
         <v>371</v>
       </c>
-      <c r="AA12" s="26" t="s">
+      <c r="AB12" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="AB12" s="26" t="s">
+      <c r="AC12" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="AC12" s="26" t="s">
+      <c r="AD12" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="AD12" s="26" t="s">
+      <c r="AE12" s="26" t="s">
         <v>375</v>
-      </c>
-      <c r="AE12" s="26" t="s">
-        <v>376</v>
       </c>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
@@ -3358,46 +3364,46 @@
     </row>
     <row r="13" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="C13" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>378</v>
+      <c r="E13" s="30" t="s">
+        <v>398</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="F13" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="E13" s="30" t="s">
-        <v>399</v>
+      <c r="G13" s="26" t="s">
+        <v>354</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="H13" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="G13" s="26" t="s">
-        <v>355</v>
-      </c>
-      <c r="H13" s="26" t="s">
+      <c r="I13" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="J13" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="K13" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="L13" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="M13" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="M13" s="26" t="s">
+      <c r="N13" s="26" t="s">
         <v>386</v>
-      </c>
-      <c r="N13" s="26" t="s">
-        <v>387</v>
       </c>
       <c r="O13" s="19"/>
       <c r="P13" s="19"/>

--- a/carezoom_frontend/entries3.xlsx
+++ b/carezoom_frontend/entries3.xlsx
@@ -601,10 +601,6 @@
     <t>§    The intervention was implemented by the Boston Medical Center Primary Care Hepatitis C Treatment Program.</t>
   </si>
   <si>
-    <t xml:space="preserve">§ 340B drug pricing monetarily incentivizes medical centers to treat hepatitis C in their patient population. The Boston Medical Center Primary Care Hepatitis C Treatment Program was established in 2015 in an effort to address the specific needs of hepatitis C patients so that they can receive treatment, decreasing disease burden in the population and secondarily, financially benefit the hospital.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">§ The BMC Primary Care HCV Treatment Program was established in 2015 in an effort to address the specific needs of HCV patients so that they can receive treatment, decreasing disease burden in the population.
 §The program consists of the following:
 -13 primary care HCV providers (physicians, nurse practitioners, and residents, 4 of whom see the majority of the patients): internally trained to treat HCV.  This training includes completion of online modules provided by the American Association for the Study of Liver Disease or by University of Washington and shadowing a HCV specialist for 1 clinic session. 
@@ -725,12 +721,6 @@
   <si>
     <t xml:space="preserve">§ South Huntington Primary Care Associates is a Level 3 Patient Centered Medical Home in Jamaica Plain, MA 
 § It is a primary care affiliate of Brigham and Women’s Hospital, an academic medical center
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">§ BWH and South Huntington leadership were aware of successful models of behavioral health integration into primary care and concerned about a shortage of mental health providers for their patients. 
-§ They thus deemed behavioral health integration a priority for the clinic at the time of its founding.
-§ South Huntington had already adopted the Collaborative Care Model, with multidisciplinary team of doctors, physician assistants, nurses, social workers, and medical assistants providing team-based care to patients on a daily basis. 
 </t>
   </si>
   <si>
@@ -856,9 +846,6 @@
     <t>§    Academic medical practice in downtown Boston that employs 40 Physicians (~28 FTE), 6 NPs (~4.5 clinical FTE), 2 PAs, 3 social workers, 72 residents, 8 FTE RNs, 60 support staff. Sees 38,000 patients in 6500 visits per month. Practice gets 14,000 incoming calls a month</t>
   </si>
   <si>
-    <t>§ 9400 patients served by Tufts Medical Center have hypertension. The practice's goal was to have patients under 60 or with diabetes or CKD achieve a BP of &lt; 140/90. A BP goal of &lt; 150/90 was set for patients 60+.</t>
-  </si>
-  <si>
     <t>§ Serves a diverse patient population, with ~10% of its population African American, 10% Asian, and 9% Hispanic. 25% of its patients are on Medicaid, and 32% are on Medicare</t>
   </si>
   <si>
@@ -931,9 +918,6 @@
   </si>
   <si>
     <t>§   Suburban primary care practice affiliated with an academic medical center (University of Vermont)</t>
-  </si>
-  <si>
-    <t>▪ In preparation for moving away from fee for service payment, sought to enhance team based care</t>
   </si>
   <si>
     <t xml:space="preserve">§   Practice consists of 12 providers (MD or NP); standard model includes loose partnership of all nurses with all providers </t>
@@ -1028,12 +1012,6 @@
   </si>
   <si>
     <t>▪ Academic medical center associated primary care practice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">▪ Massachusetts General Hospital Internal Medicine Associates in Boston, MA
-▪ One of twelve primary care practices at Massachusetts General Hospital
-■ Each primary care practice is further organized into interprofessional healthcare teams called “pods” ▪ All sixteen primary care practices affiliated with Massachusetts General Hospital are rolling out patient reported outcomes (PRO) assessment projects.
-</t>
   </si>
   <si>
     <t xml:space="preserve">▪ The author, Dr. Blair Fosburgh, serves as the Medical Director of the Internal Medicine Associates. </t>
@@ -1919,7 +1897,29 @@
     <t xml:space="preserve">▪	There is a high turnover rate among medical scribe personnel who often turn over after 12-18 months of employment </t>
   </si>
   <si>
-    <t>&lt;ul&gt; &lt;li&gt; Brookside Community Health Center has recently become a patient-centered medical home. It has been experiencing a movement towards increased efficiency and better billing practices. &lt;/li&gt; &lt;/ul&gt;</t>
+    <t xml:space="preserve">&lt;ul&gt; &lt;li&gt; 340B drug pricing monetarily incentivizes medical centers to treat hepatitis C in their patient population. The Boston Medical Center Primary Care Hepatitis C Treatment Program was established in 2015 in an effort to address the specific needs of hepatitis C patients so that they can receive treatment, decreasing disease burden in the population and secondarily, financially benefit the hospital.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt; &lt;li&gt; BWH and South Huntington leadership were aware of successful models of behavioral health integration into primary care and concerned about a shortage of mental health providers for their patients. 
+§ They thus deemed behavioral health integration a priority for the clinic at the time of its founding.
+§ South Huntington had already adopted the Collaborative Care Model, with multidisciplinary team of doctors, physician assistants, nurses, social workers, and medical assistants providing team-based care to patients on a daily basis. 
+</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt; 9400 patients served by Tufts Medical Center have hypertension. The practice's goal was to have patients under 60 or with diabetes or CKD achieve a BP of &lt; 140/90. A BP goal of &lt; 150/90 was set for patients 60+.</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt; &lt;li&gt;  In preparation for moving away from fee for service payment, sought to enhance team based care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt; &lt;li&gt; Massachusetts General Hospital Internal Medicine Associates in Boston, MA
+▪ One of twelve primary care practices at Massachusetts General Hospital
+■ Each primary care practice is further organized into interprofessional healthcare teams called “pods” ▪ All sixteen primary care practices affiliated with Massachusetts General Hospital are rolling out patient reported outcomes (PRO) assessment projects.
+</t>
+  </si>
+  <si>
+    <t>"&lt;ul&gt; "+"&lt;li&gt;"+ Brookside Community Health Center has recently become a patient-centered medical home. It has been experiencing a movement towards increased efficiency and better billing practices.+ "&lt;/li&gt; "+"&lt;/ul&gt;"</t>
   </si>
 </sst>
 </file>
@@ -2806,68 +2806,68 @@
       <c r="K4" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="M4" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="N4" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="O4" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="P4" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="Q4" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="R4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="S4" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>177</v>
       </c>
       <c r="T4" s="19" t="s">
         <v>104</v>
       </c>
       <c r="U4" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="V4" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="W4" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="W4" s="23" t="s">
+      <c r="X4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="Y4" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="Y4" s="19" t="s">
+      <c r="Z4" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="AA4" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AC4" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" s="19" t="s">
+      <c r="AD4" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AE4" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AF4" s="19" t="s">
         <v>188</v>
-      </c>
-      <c r="AF4" s="19" t="s">
-        <v>189</v>
       </c>
       <c r="AG4" s="18"/>
       <c r="AH4" s="19"/>
@@ -2879,96 +2879,96 @@
     </row>
     <row r="5" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="21" t="s">
         <v>194</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>195</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I5" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" s="19" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="L5" s="30" t="s">
+        <v>446</v>
+      </c>
+      <c r="M5" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="N5" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="M5" s="20" t="s">
+      <c r="O5" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="N5" s="20" t="s">
+      <c r="P5" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="Q5" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="R5" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="Q5" s="20" t="s">
-        <v>204</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>205</v>
-      </c>
       <c r="S5" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="T5" s="19" t="s">
         <v>88</v>
       </c>
       <c r="U5" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="V5" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="W5" s="24">
         <v>400000</v>
       </c>
       <c r="X5" s="19" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Y5" s="19" t="s">
         <v>154</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AA5" s="19"/>
       <c r="AB5" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC5" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD5" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="AC5" s="20" t="s">
+      <c r="AE5" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="AD5" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="AE5" s="20" t="s">
-        <v>213</v>
-      </c>
       <c r="AF5" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
@@ -2980,52 +2980,52 @@
     </row>
     <row r="6" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="19" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>217</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>219</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>222</v>
+        <v>219</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>447</v>
       </c>
       <c r="M6" s="19"/>
       <c r="N6" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O6" s="20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="Q6" s="19"/>
       <c r="R6" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="S6" s="19"/>
       <c r="T6" s="19" t="s">
@@ -3035,35 +3035,35 @@
         <v>151</v>
       </c>
       <c r="V6" s="20" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="W6" s="25">
         <v>2000</v>
       </c>
       <c r="X6" s="19"/>
       <c r="Y6" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="Z6" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA6" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC6" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="Z6" s="20" t="s">
+      <c r="AD6" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="AA6" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="AC6" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="AD6" s="20" t="s">
-        <v>232</v>
-      </c>
       <c r="AE6" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF6" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
@@ -3075,90 +3075,90 @@
     </row>
     <row r="7" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="J7" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="K7" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="L7" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="M7" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="N7" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="O7" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="P7" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="O7" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>247</v>
       </c>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="V7" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="W7" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="X7" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y7" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="V7" s="20" t="s">
+      <c r="Z7" s="19" t="s">
         <v>249</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="AA7" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="X7" s="20" t="s">
+      <c r="AB7" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="Y7" s="20" t="s">
+      <c r="AC7" s="20" t="s">
         <v>252</v>
       </c>
-      <c r="Z7" s="19" t="s">
+      <c r="AD7" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="AA7" s="20" t="s">
+      <c r="AE7" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="AB7" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="AC7" s="20" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD7" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="AE7" s="20" t="s">
-        <v>258</v>
-      </c>
       <c r="AF7" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
@@ -3170,98 +3170,98 @@
     </row>
     <row r="8" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="19" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>260</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>262</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>264</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I8" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>449</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="N8" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="O8" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="P8" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="Q8" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="R8" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="S8" s="20" t="s">
         <v>270</v>
-      </c>
-      <c r="O8" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>275</v>
       </c>
       <c r="T8" s="19" t="s">
         <v>88</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="V8" s="20" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="W8" s="21" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="X8" s="19" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="Y8" s="19" t="s">
         <v>154</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AB8" s="19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AC8" s="19" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AD8" s="19" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AE8" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF8" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
@@ -3273,96 +3273,96 @@
     </row>
     <row r="9" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H9" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I9" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="N9" s="20" t="s">
         <v>265</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="O9" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>267</v>
-      </c>
-      <c r="L9" s="20" t="s">
+      <c r="P9" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="S9" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="M9" s="20" t="s">
+      <c r="T9" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="P9" s="19" t="s">
+      <c r="U9" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="V9" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="W9" s="21" t="s">
         <v>293</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="X9" s="19" t="s">
         <v>294</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>295</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="V9" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="W9" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>299</v>
       </c>
       <c r="Y9" s="19" t="s">
         <v>154</v>
       </c>
       <c r="Z9" s="26"/>
       <c r="AA9" s="19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="AB9" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC9" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="AD9" s="19" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="AE9" s="19" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="AF9" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
@@ -3374,92 +3374,92 @@
     </row>
     <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H10" s="19" t="s">
         <v>140</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="J10" s="19" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M10" s="19"/>
       <c r="N10" s="20" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="P10" s="19"/>
       <c r="Q10" s="19" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="R10" s="19" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="19" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="U10" s="19" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="V10" s="19" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="W10" s="25">
         <v>100000</v>
       </c>
       <c r="X10" s="19" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="Y10" s="19" t="s">
         <v>154</v>
       </c>
       <c r="Z10" s="19" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AA10" s="19" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AB10" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AC10" s="19" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AD10" s="19" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AE10" s="19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AF10" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
@@ -3471,98 +3471,98 @@
     </row>
     <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="G11" s="20" t="s">
         <v>321</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>326</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>140</v>
       </c>
       <c r="I11" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>326</v>
+      </c>
+      <c r="O11" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="J11" s="27" t="s">
-        <v>220</v>
-      </c>
-      <c r="K11" s="20" t="s">
+      <c r="P11" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="L11" s="20" t="s">
+      <c r="Q11" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="M11" s="20" t="s">
+      <c r="R11" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="S11" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="T11" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="U11" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="V11" s="20" t="s">
         <v>334</v>
-      </c>
-      <c r="R11" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="S11" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="T11" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="U11" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="V11" s="20" t="s">
-        <v>339</v>
       </c>
       <c r="W11" s="28">
         <v>2000</v>
       </c>
       <c r="X11" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="Z11" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA11" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB11" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC11" s="20" t="s">
         <v>340</v>
-      </c>
-      <c r="Y11" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="Z11" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA11" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="AB11" s="20" t="s">
-        <v>344</v>
-      </c>
-      <c r="AC11" s="20" t="s">
-        <v>345</v>
       </c>
       <c r="AD11" s="19"/>
       <c r="AE11" s="20" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AF11" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
@@ -3574,96 +3574,96 @@
     </row>
     <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="G12" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="H12" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="I12" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="J12" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="K12" s="27" t="s">
         <v>352</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="L12" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="M12" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="O12" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="P12" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="Q12" s="20" t="s">
         <v>358</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="R12" s="20" t="s">
         <v>359</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>360</v>
-      </c>
-      <c r="O12" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="P12" s="20" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>364</v>
       </c>
       <c r="S12" s="19"/>
       <c r="T12" s="19"/>
       <c r="U12" s="20" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="V12" s="20" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="W12" s="28">
         <v>155000</v>
       </c>
       <c r="X12" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA12" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB12" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC12" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="Y12" s="20" t="s">
+      <c r="AD12" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="Z12" s="20" t="s">
+      <c r="AE12" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="AA12" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB12" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC12" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="AD12" s="20" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>374</v>
-      </c>
       <c r="AF12" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
@@ -3675,96 +3675,96 @@
     </row>
     <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>372</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>374</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="I13" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="D13" s="20" t="s">
+      <c r="J13" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="K13" s="20" t="s">
         <v>378</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="L13" s="20" t="s">
         <v>379</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="M13" s="20" t="s">
         <v>380</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="N13" s="20" t="s">
         <v>381</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="O13" s="20" t="s">
         <v>382</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>387</v>
       </c>
       <c r="P13" s="19"/>
       <c r="Q13" s="20" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="R13" s="20" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="S13" s="20" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="T13" s="19"/>
       <c r="U13" s="20" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="V13" s="20" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="W13" s="28">
         <v>60000</v>
       </c>
       <c r="X13" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y13" s="20" t="s">
+        <v>389</v>
+      </c>
+      <c r="Z13" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="AA13" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB13" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC13" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD13" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="AE13" s="20" t="s">
         <v>393</v>
       </c>
-      <c r="Y13" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="Z13" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA13" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="AB13" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC13" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="AD13" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="AE13" s="20" t="s">
-        <v>398</v>
-      </c>
       <c r="AF13" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
@@ -3776,100 +3776,100 @@
     </row>
     <row r="14" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>397</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="G14" s="20" t="s">
         <v>400</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>401</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>405</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>140</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>168</v>
       </c>
       <c r="K14" s="20" t="s">
+        <v>402</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>403</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>404</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>405</v>
+      </c>
+      <c r="O14" s="20" t="s">
+        <v>406</v>
+      </c>
+      <c r="P14" s="20" t="s">
         <v>407</v>
       </c>
-      <c r="L14" s="20" t="s">
+      <c r="Q14" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="M14" s="20" t="s">
+      <c r="R14" s="20" t="s">
         <v>409</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="S14" s="20" t="s">
         <v>410</v>
-      </c>
-      <c r="O14" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>413</v>
-      </c>
-      <c r="R14" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="S14" s="20" t="s">
-        <v>415</v>
       </c>
       <c r="T14" s="20" t="s">
         <v>104</v>
       </c>
       <c r="U14" s="20" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="V14" s="20" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="W14" s="28">
         <v>0</v>
       </c>
       <c r="X14" s="20" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y14" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z14" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA14" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="AB14" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC14" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD14" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE14" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="Y14" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="Z14" s="20" t="s">
-        <v>420</v>
-      </c>
-      <c r="AA14" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="AB14" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC14" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="AD14" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="AE14" s="20" t="s">
-        <v>423</v>
-      </c>
       <c r="AF14" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
@@ -3881,100 +3881,100 @@
     </row>
     <row r="15" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>420</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>429</v>
-      </c>
       <c r="G15" s="20" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>140</v>
       </c>
       <c r="I15" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>426</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="O15" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="K15" s="20" t="s">
+      <c r="P15" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="L15" s="20" t="s">
+      <c r="Q15" s="20" t="s">
         <v>432</v>
       </c>
-      <c r="M15" s="20" t="s">
+      <c r="R15" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="S15" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="T15" s="20" t="s">
         <v>435</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="U15" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="V15" s="20" t="s">
         <v>437</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>442</v>
       </c>
       <c r="W15" s="28">
         <v>50000</v>
       </c>
       <c r="X15" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y15" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z15" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA15" s="20" t="s">
+        <v>441</v>
+      </c>
+      <c r="AB15" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC15" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="AD15" s="20" t="s">
         <v>443</v>
       </c>
-      <c r="Y15" s="20" t="s">
+      <c r="AE15" s="20" t="s">
         <v>444</v>
       </c>
-      <c r="Z15" s="20" t="s">
-        <v>445</v>
-      </c>
-      <c r="AA15" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="AB15" s="20" t="s">
-        <v>371</v>
-      </c>
-      <c r="AC15" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="AD15" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE15" s="20" t="s">
-        <v>449</v>
-      </c>
       <c r="AF15" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>

--- a/carezoom_frontend/entries3.xlsx
+++ b/carezoom_frontend/entries3.xlsx
@@ -1936,7 +1936,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1974,6 +1974,11 @@
       <sz val="13"/>
       <color rgb="FF242729"/>
       <name val="Consolas"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="Georgia"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2087,7 +2092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2176,6 +2181,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2460,7 +2466,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2796,7 +2802,7 @@
       <c r="AM3" s="19"/>
       <c r="AN3" s="19"/>
     </row>
-    <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>162</v>
       </c>
@@ -2828,7 +2834,10 @@
       <c r="K4" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="20"/>
+      <c r="L4" s="32" t="str">
+        <f>"&lt;p&gt;"&amp;K4&amp;"&lt;/p&gt;"</f>
+        <v>&lt;p&gt;§    The intervention was implemented by the Boston Medical Center Primary Care Hepatitis C Treatment Program.&lt;/p&gt;</v>
+      </c>
       <c r="M4" s="30" t="s">
         <v>446</v>
       </c>

--- a/carezoom_frontend/entries3.xlsx
+++ b/carezoom_frontend/entries3.xlsx
@@ -2466,7 +2466,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2834,9 +2834,9 @@
       <c r="K4" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="32" t="str">
-        <f>"&lt;p&gt;"&amp;K4&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt;§    The intervention was implemented by the Boston Medical Center Primary Care Hepatitis C Treatment Program.&lt;/p&gt;</v>
+      <c r="L4" s="32" t="e">
+        <f>"&lt;p&gt;"+ K4+"&lt;/p&gt;"</f>
+        <v>#VALUE!</v>
       </c>
       <c r="M4" s="30" t="s">
         <v>446</v>

--- a/carezoom_frontend/entries3.xlsx
+++ b/carezoom_frontend/entries3.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="453">
   <si>
     <t>title</t>
   </si>
@@ -2831,12 +2831,11 @@
       <c r="J4" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="32" t="e">
-        <f>"&lt;p&gt;"+ K4+"&lt;/p&gt;"</f>
-        <v>#VALUE!</v>
+      <c r="L4" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="M4" s="30" t="s">
         <v>446</v>

--- a/carezoom_frontend/entries3.xlsx
+++ b/carezoom_frontend/entries3.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="453">
   <si>
     <t>title</t>
   </si>
@@ -462,9 +462,6 @@
   </si>
   <si>
     <t>Epic achosp chc MD/DO 1 Mas</t>
-  </si>
-  <si>
-    <t>▪ Development of a team-based workflow for Medicare wellness visits to increase access to the service and bill appropriately while allowing all clinicians to practice at the top of their licenses.</t>
   </si>
   <si>
     <t>Cynthia So-Armah MD</t>
@@ -1011,9 +1008,6 @@
     <t>Massachusetts General Hospital</t>
   </si>
   <si>
-    <t>▪ Academic medical center associated primary care practice</t>
-  </si>
-  <si>
     <t xml:space="preserve">▪ The author, Dr. Blair Fosburgh, serves as the Medical Director of the Internal Medicine Associates. </t>
   </si>
   <si>
@@ -1386,9 +1380,6 @@
     <t>Portland Providence Medical Center</t>
   </si>
   <si>
-    <t>Providence Portland Medical Center is a community-based academic medical healthcare system that serves the entirety of the large multi-state Portland Service Area and sees patients with various payor sources.</t>
-  </si>
-  <si>
     <t>▪      Providence Medical Group primary care clinics are patient-centered medical homes and incorporate behaviorists, pharmacists, and care managers into their practice. 
 ▪        Oregon ranks second in the nation for non-medical use of prescription pain medication, at 5.7% of the state’s population.</t>
   </si>
@@ -1496,9 +1487,6 @@
   </si>
   <si>
     <t>LAC+USC Medical Center</t>
-  </si>
-  <si>
-    <t xml:space="preserve">o	The clinic is a hospital-based primary care clinic at Los Angeles County + USC Medical Center affiliated with the University of Southern California Medical Center and is part of the Los Angeles County network of safety net medical services. </t>
   </si>
   <si>
     <t xml:space="preserve">o	The Los Angeles County + USC Medical Center is an integrated healthcare system whose services and financial health had improved under the 2010 passage of the Affordable Care Act as its payor sources converted from 75% of its patients being uninsured to 75% Medi-Cal (California’s Medicaid program), leading to an influx of resources dedicated to providing more innovative and coordinated care.
@@ -1616,9 +1604,6 @@
     <t>Boston Medical Center Family Medicine Department</t>
   </si>
   <si>
-    <t>Boston Medical Center is a quarternary academic medical center in Boston, MA.</t>
-  </si>
-  <si>
     <t>Boston Medical Center is the largest safety net hospital in the New England region.</t>
   </si>
   <si>
@@ -1718,11 +1703,6 @@
   </si>
   <si>
     <t>Brigham &amp; Women's Hospital Advanced Primary Care Associates - South Huntington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partners HealthCare is a not-for-profit health care system that is committed to patient care, research, teaching, and service to the community locally and globally. Collaboration among our institutions and health care professionals is central to our efforts to advance our mission.
-Founded in 1994 by Brigham and Women's Hospital and Massachusetts General Hospital, Partners HealthCare includes community and specialty hospitals, a managed care organization, a physician network, community health centers, home care and other health-related entities. 
-Several of our hospitals are teaching affiliates of Harvard Medical School, and Partners is a national leader in biomedical research. </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1927,6 +1907,26 @@
   <si>
     <t>try</t>
   </si>
+  <si>
+    <t>Development of a team-based workflow for Medicare wellness visits to increase access to the service and bill appropriately while allowing all clinicians to practice at the top of their licenses.</t>
+  </si>
+  <si>
+    <t>§  Academic medical center associated primary care practice</t>
+  </si>
+  <si>
+    <t>▪ Providence Portland Medical Center is a community-based academic medical healthcare system that serves the entirety of the large multi-state Portland Service Area and sees patients with various payor sources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▪ The clinic is a hospital-based primary care clinic at Los Angeles County + USC Medical Center affiliated with the University of Southern California Medical Center and is part of the Los Angeles County network of safety net medical services. </t>
+  </si>
+  <si>
+    <t>▪ Boston Medical Center is a quarternary academic medical center in Boston, MA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▪ Partners HealthCare is a not-for-profit health care system that is committed to patient care, research, teaching, and service to the community locally and globally. Collaboration among our institutions and health care professionals is central to our efforts to advance our mission.
+Founded in 1994 by Brigham and Women's Hospital and Massachusetts General Hospital, Partners HealthCare includes community and specialty hospitals, a managed care organization, a physician network, community health centers, home care and other health-related entities. 
+Several of our hospitals are teaching affiliates of Harvard Medical School, and Partners is a national leader in biomedical research. </t>
+  </si>
 </sst>
 </file>
 
@@ -1936,7 +1936,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1974,11 +1974,6 @@
       <sz val="13"/>
       <color rgb="FF242729"/>
       <name val="Consolas"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF333333"/>
-      <name val="Georgia"/>
     </font>
   </fonts>
   <fills count="16">
@@ -2181,7 +2176,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2466,7 +2463,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2513,7 +2510,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>10</v>
@@ -2620,7 +2617,7 @@
         <v>111</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>112</v>
@@ -2706,93 +2703,93 @@
       <c r="D3" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="G3" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="H3" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="I3" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="30" t="s">
         <v>142</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>143</v>
       </c>
       <c r="L3" s="31" t="str">
         <f>LEFT(K3,SEARCH("§ ",K3)-1)&amp;"&lt;ul&gt;&lt;li&gt;"&amp;SUBSTITUTE(RIGHT(K3,LEN(K3)-SEARCH("§ ",K3)),"§ ","&lt;/li&gt;&lt;li&gt;")&amp;"&lt;/li&gt;&lt;/ul&gt;"</f>
         <v>&lt;ul&gt;&lt;li&gt; Adult Medicine Department at Brookside Community Health Center, licensed by Brigham and Women’s Hospital.&lt;/li&gt;&lt;/ul&gt;</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="N3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="O3" s="20" t="s">
+      <c r="P3" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="Q3" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="R3" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="S3" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="T3" s="20" t="s">
         <v>149</v>
-      </c>
-      <c r="T3" s="20" t="s">
-        <v>150</v>
       </c>
       <c r="U3" s="19" t="s">
         <v>88</v>
       </c>
       <c r="V3" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="W3" s="20" t="s">
         <v>151</v>
-      </c>
-      <c r="W3" s="20" t="s">
-        <v>152</v>
       </c>
       <c r="X3" s="21">
         <v>0</v>
       </c>
       <c r="Y3" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z3" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="AA3" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="AA3" s="20" t="s">
+      <c r="AB3" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="AB3" s="20" t="s">
+      <c r="AC3" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="AC3" s="20" t="s">
+      <c r="AD3" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="AD3" s="20" t="s">
+      <c r="AE3" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="AE3" s="20" t="s">
+      <c r="AF3" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="AF3" s="20" t="s">
+      <c r="AG3" s="19" t="s">
         <v>160</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>161</v>
       </c>
       <c r="AH3" s="18"/>
       <c r="AI3" s="19"/>
@@ -2802,103 +2799,104 @@
       <c r="AM3" s="19"/>
       <c r="AN3" s="19"/>
     </row>
-    <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G4" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I4" s="21" t="s">
+      <c r="J4" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="L4" s="31" t="str">
+        <f t="shared" ref="L4:L15" si="0">LEFT(K4,SEARCH("§ ",K4)-1)&amp;"&lt;ul&gt;&lt;li&gt;"&amp;SUBSTITUTE(RIGHT(K4,LEN(K4)-SEARCH("§ ",K4)),"§ ","&lt;/li&gt;&lt;li&gt;")&amp;"&lt;/li&gt;&lt;/ul&gt;"</f>
+        <v>&lt;ul&gt;&lt;li&gt;    The intervention was implemented by the Boston Medical Center Primary Care Hepatitis C Treatment Program.&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="M4" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="L4" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="M4" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="N4" s="20" t="s">
+      <c r="O4" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="P4" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="Q4" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="R4" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="S4" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="T4" s="19" t="s">
         <v>175</v>
-      </c>
-      <c r="T4" s="19" t="s">
-        <v>176</v>
       </c>
       <c r="U4" s="19" t="s">
         <v>104</v>
       </c>
       <c r="V4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="W4" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="W4" s="19" t="s">
+      <c r="X4" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="X4" s="23" t="s">
+      <c r="Y4" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" s="19" t="s">
+      <c r="Z4" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="AA4" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="AB4" s="19" t="s">
+      <c r="AC4" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" s="19" t="s">
+      <c r="AD4" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="AD4" s="19" t="s">
+      <c r="AE4" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AF4" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="AF4" s="19" t="s">
+      <c r="AG4" s="19" t="s">
         <v>187</v>
-      </c>
-      <c r="AG4" s="19" t="s">
-        <v>188</v>
       </c>
       <c r="AH4" s="18"/>
       <c r="AI4" s="19"/>
@@ -2908,99 +2906,102 @@
       <c r="AM4" s="19"/>
       <c r="AN4" s="19"/>
     </row>
-    <row r="5" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="E5" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G5" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="H5" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="H5" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="21" t="s">
+      <c r="J5" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="L5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;ul&gt;&lt;li&gt; South Huntington Primary Care Associates is a Level 3 Patient Centered Medical Home in Jamaica Plain, MA _x000D_&lt;/li&gt;&lt;li&gt;It is a primary care affiliate of Brigham and Women’s Hospital, an academic medical center_x000D_&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="N5" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="N5" s="20" t="s">
+      <c r="O5" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="P5" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="Q5" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="R5" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="S5" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="S5" s="20" t="s">
-        <v>203</v>
-      </c>
       <c r="T5" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U5" s="19" t="s">
         <v>88</v>
       </c>
       <c r="V5" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="W5" s="20" t="s">
         <v>204</v>
-      </c>
-      <c r="W5" s="20" t="s">
-        <v>205</v>
       </c>
       <c r="X5" s="24">
         <v>400000</v>
       </c>
       <c r="Y5" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="Z5" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA5" s="20" t="s">
         <v>206</v>
-      </c>
-      <c r="Z5" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA5" s="20" t="s">
-        <v>207</v>
       </c>
       <c r="AB5" s="19"/>
       <c r="AC5" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="AD5" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="AD5" s="20" t="s">
+      <c r="AE5" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="AE5" s="20" t="s">
+      <c r="AF5" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="AF5" s="20" t="s">
-        <v>211</v>
-      </c>
       <c r="AG5" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
@@ -3010,93 +3011,96 @@
       <c r="AM5" s="19"/>
       <c r="AN5" s="19"/>
     </row>
-    <row r="6" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="E6" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="H6" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="19" t="s">
+      <c r="J6" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="30" t="s">
         <v>218</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="L6" s="20"/>
+      <c r="L6" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;ul&gt;&lt;li&gt;    Academic medical practice in downtown Boston that employs 40 Physicians (~28 FTE), 6 NPs (~4.5 clinical FTE), 2 PAs, 3 social workers, 72 residents, 8 FTE RNs, 60 support staff. Sees 38,000 patients in 6500 visits per month. Practice gets 14,000 incoming calls a month&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
       <c r="M6" s="30" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="P6" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="Q6" s="20" t="s">
         <v>221</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>222</v>
       </c>
       <c r="R6" s="19"/>
       <c r="S6" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T6" s="19"/>
       <c r="U6" s="19" t="s">
         <v>88</v>
       </c>
       <c r="V6" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="X6" s="25">
         <v>2000</v>
       </c>
       <c r="Y6" s="19"/>
       <c r="Z6" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA6" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="AA6" s="20" t="s">
+      <c r="AB6" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="AB6" s="20" t="s">
+      <c r="AC6" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD6" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="AC6" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD6" s="20" t="s">
+      <c r="AE6" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="AE6" s="20" t="s">
-        <v>229</v>
-      </c>
       <c r="AF6" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG6" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
@@ -3106,93 +3110,96 @@
       <c r="AM6" s="19"/>
       <c r="AN6" s="19"/>
     </row>
-    <row r="7" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="E7" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="G7" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="H7" s="19" t="s">
         <v>235</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="I7" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="J7" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="K7" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="L7" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;ul&gt;&lt;li&gt;   Suburban primary care practice affiliated with an academic medical center (University of Vermont)&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="N7" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="N7" s="20" t="s">
+      <c r="O7" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="P7" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="P7" s="20" t="s">
+      <c r="Q7" s="19" t="s">
         <v>242</v>
-      </c>
-      <c r="Q7" s="19" t="s">
-        <v>243</v>
       </c>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
       <c r="V7" s="19" t="s">
+        <v>243</v>
+      </c>
+      <c r="W7" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="W7" s="20" t="s">
+      <c r="X7" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="X7" s="21" t="s">
+      <c r="Y7" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="Y7" s="20" t="s">
+      <c r="Z7" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="Z7" s="20" t="s">
+      <c r="AA7" s="19" t="s">
         <v>248</v>
       </c>
-      <c r="AA7" s="19" t="s">
+      <c r="AB7" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="AB7" s="20" t="s">
+      <c r="AC7" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="AC7" s="20" t="s">
+      <c r="AD7" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="AD7" s="20" t="s">
+      <c r="AE7" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="AE7" s="19" t="s">
+      <c r="AF7" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="AF7" s="20" t="s">
-        <v>254</v>
-      </c>
       <c r="AG7" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
@@ -3202,101 +3209,104 @@
       <c r="AM7" s="19"/>
       <c r="AN7" s="19"/>
     </row>
-    <row r="8" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="E8" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F8" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I8" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I8" s="19" t="s">
+      <c r="J8" s="19" t="s">
         <v>261</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="K8" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="L8" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;ul&gt;&lt;li&gt;  Academic medical center associated primary care practice&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="N8" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="O8" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="N8" s="20" t="s">
+      <c r="P8" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="O8" s="20" t="s">
+      <c r="Q8" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="P8" s="19" t="s">
+      <c r="R8" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="S8" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="T8" s="20" t="s">
         <v>268</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="T8" s="20" t="s">
-        <v>270</v>
       </c>
       <c r="U8" s="19" t="s">
         <v>88</v>
       </c>
       <c r="V8" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="W8" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="X8" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="W8" s="20" t="s">
+      <c r="Y8" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="X8" s="21" t="s">
+      <c r="Z8" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA8" s="19" t="s">
         <v>273</v>
       </c>
-      <c r="Y8" s="19" t="s">
+      <c r="AB8" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="Z8" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA8" s="19" t="s">
+      <c r="AC8" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="AB8" s="19" t="s">
+      <c r="AD8" s="19" t="s">
         <v>276</v>
       </c>
-      <c r="AC8" s="19" t="s">
+      <c r="AE8" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="AD8" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>279</v>
-      </c>
       <c r="AF8" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG8" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
@@ -3306,99 +3316,102 @@
       <c r="AM8" s="19"/>
       <c r="AN8" s="19"/>
     </row>
-    <row r="9" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="F9" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="L9" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;ul&gt;&lt;li&gt;  Academic medical center associated primary care practice&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="M9" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="N9" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="J9" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="O9" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20" t="s">
+      <c r="P9" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q9" s="19" t="s">
         <v>284</v>
       </c>
-      <c r="N9" s="20" t="s">
+      <c r="R9" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="O9" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="P9" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q9" s="19" t="s">
+      <c r="S9" s="20" t="s">
         <v>286</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="T9" s="20" t="s">
         <v>287</v>
       </c>
-      <c r="S9" s="20" t="s">
+      <c r="U9" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="T9" s="20" t="s">
+      <c r="V9" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="U9" s="19" t="s">
+      <c r="W9" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="V9" s="19" t="s">
+      <c r="X9" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="Y9" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="X9" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y9" s="19" t="s">
-        <v>294</v>
-      </c>
       <c r="Z9" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AA9" s="26"/>
       <c r="AB9" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC9" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD9" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE9" s="19" t="s">
         <v>295</v>
       </c>
-      <c r="AC9" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="AE9" s="19" t="s">
-        <v>297</v>
-      </c>
-      <c r="AF9" s="19" t="s">
-        <v>298</v>
-      </c>
       <c r="AG9" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
@@ -3408,95 +3421,98 @@
       <c r="AM9" s="19"/>
       <c r="AN9" s="19"/>
     </row>
-    <row r="10" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="F10" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>&lt;ul&gt;&lt;li&gt;    Academic medical practice in downtown Boston that employs 40 Physicians (~28 FTE), 6 NPs (~4.5 clinical FTE), 2 PAs, 3 social workers, 72 residents, 8 FTE RNs, 60 support staff. Sees 38,000 patients in 6500 visits per month. Practice gets 14,000 incoming calls a month&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="M10" s="19" t="s">
         <v>301</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="J10" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="19" t="s">
-        <v>303</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q10" s="19"/>
       <c r="R10" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="S10" s="19" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="T10" s="19"/>
       <c r="U10" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="V10" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="W10" s="19" t="s">
         <v>307</v>
-      </c>
-      <c r="V10" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="W10" s="19" t="s">
-        <v>309</v>
       </c>
       <c r="X10" s="25">
         <v>100000</v>
       </c>
       <c r="Y10" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="Z10" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA10" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="AB10" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="Z10" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA10" s="19" t="s">
+      <c r="AC10" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD10" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="AB10" s="19" t="s">
+      <c r="AE10" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="AC10" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD10" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE10" s="19" t="s">
-        <v>314</v>
-      </c>
       <c r="AF10" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG10" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
@@ -3506,101 +3522,104 @@
       <c r="AM10" s="19"/>
       <c r="AN10" s="19"/>
     </row>
-    <row r="11" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="E11" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="G11" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="H11" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="20" t="s">
         <v>320</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="J11" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I11" s="20" t="s">
+      <c r="L11" s="31" t="str">
+        <f>LEFT(K11,SEARCH("▪ ",K11)-1)&amp;"&lt;ul&gt;&lt;li&gt;"&amp;SUBSTITUTE(RIGHT(K11,LEN(K11)-SEARCH("▪ ",K11)),"▪","&lt;/li&gt;&lt;li&gt;")&amp;"&lt;/li&gt;&lt;/ul&gt;"</f>
+        <v>&lt;ul&gt;&lt;li&gt;      Tufts Medical Center Adult Primary Care Service_x000D_&lt;/li&gt;&lt;li&gt;      40 Physicians (~28 FTE), 6 NPs (~4.5 clinical FTE), 2 PAs, 3 social workers, 72 residents, 8 FTE RNs, 60 support staff_x000D_&lt;/li&gt;&lt;li&gt;      38,000 patients, 6,500 office visits a month, 14,000 incoming phone calls a month_x000D_&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="M11" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="J11" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="K11" s="20" t="s">
+      <c r="N11" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20" t="s">
+      <c r="O11" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="N11" s="20" t="s">
+      <c r="P11" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="Q11" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="P11" s="20" t="s">
+      <c r="R11" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="Q11" s="20" t="s">
+      <c r="S11" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="R11" s="20" t="s">
+      <c r="T11" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="S11" s="20" t="s">
+      <c r="U11" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="T11" s="20" t="s">
+      <c r="V11" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="U11" s="20" t="s">
+      <c r="W11" s="20" t="s">
         <v>332</v>
-      </c>
-      <c r="V11" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="W11" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="X11" s="28">
         <v>2000</v>
       </c>
       <c r="Y11" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z11" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA11" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="Z11" s="20" t="s">
+      <c r="AB11" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="AA11" s="20" t="s">
+      <c r="AC11" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="AB11" s="20" t="s">
+      <c r="AD11" s="20" t="s">
         <v>338</v>
-      </c>
-      <c r="AC11" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="AD11" s="20" t="s">
-        <v>340</v>
       </c>
       <c r="AE11" s="19"/>
       <c r="AF11" s="20" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AG11" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
@@ -3610,99 +3629,102 @@
       <c r="AM11" s="19"/>
       <c r="AN11" s="19"/>
     </row>
-    <row r="12" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="E12" s="20" t="s">
         <v>344</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="G12" s="20" t="s">
         <v>346</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="H12" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="I12" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="J12" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="K12" s="32" t="s">
+        <v>449</v>
+      </c>
+      <c r="L12" s="31" t="str">
+        <f t="shared" ref="L12:L15" si="1">LEFT(K12,SEARCH("▪ ",K12)-1)&amp;"&lt;ul&gt;&lt;li&gt;"&amp;SUBSTITUTE(RIGHT(K12,LEN(K12)-SEARCH("▪ ",K12)),"▪","&lt;/li&gt;&lt;li&gt;")&amp;"&lt;/li&gt;&lt;/ul&gt;"</f>
+        <v>&lt;ul&gt;&lt;li&gt; Providence Portland Medical Center is a community-based academic medical healthcare system that serves the entirety of the large multi-state Portland Service Area and sees patients with various payor sources.&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="M12" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="N12" s="20" t="s">
         <v>351</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="O12" s="20" t="s">
         <v>352</v>
       </c>
-      <c r="L12" s="27"/>
-      <c r="M12" s="20" t="s">
+      <c r="P12" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="Q12" s="20" t="s">
         <v>354</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="R12" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="S12" s="20" t="s">
         <v>356</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="S12" s="20" t="s">
-        <v>359</v>
       </c>
       <c r="T12" s="19"/>
       <c r="U12" s="19"/>
       <c r="V12" s="20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="W12" s="20" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="X12" s="28">
         <v>155000</v>
       </c>
       <c r="Y12" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z12" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA12" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="AB12" s="20" t="s">
         <v>362</v>
       </c>
-      <c r="Z12" s="20" t="s">
+      <c r="AC12" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="AA12" s="20" t="s">
+      <c r="AD12" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="AB12" s="20" t="s">
+      <c r="AE12" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="AC12" s="20" t="s">
+      <c r="AF12" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="AD12" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="AE12" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="AF12" s="20" t="s">
-        <v>369</v>
-      </c>
       <c r="AG12" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
@@ -3712,99 +3734,102 @@
       <c r="AM12" s="19"/>
       <c r="AN12" s="19"/>
     </row>
-    <row r="13" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="F13" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="C13" s="29" t="s">
-        <v>371</v>
-      </c>
-      <c r="D13" s="20" t="s">
+      <c r="G13" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="I13" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="J13" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="K13" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="L13" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;ul&gt;&lt;li&gt; The clinic is a hospital-based primary care clinic at Los Angeles County + USC Medical Center affiliated with the University of Southern California Medical Center and is part of the Los Angeles County network of safety net medical services. &lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="M13" s="20" t="s">
         <v>375</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="N13" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="O13" s="20" t="s">
         <v>377</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="P13" s="20" t="s">
         <v>378</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="O13" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="P13" s="20" t="s">
-        <v>382</v>
       </c>
       <c r="Q13" s="19"/>
       <c r="R13" s="20" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="S13" s="20" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="T13" s="20" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="U13" s="19"/>
       <c r="V13" s="20" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="W13" s="20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="X13" s="28">
         <v>60000</v>
       </c>
       <c r="Y13" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="Z13" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA13" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB13" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="AC13" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD13" s="20" t="s">
+        <v>387</v>
+      </c>
+      <c r="AE13" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="Z13" s="20" t="s">
+      <c r="AF13" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="AA13" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB13" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC13" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="AD13" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="AE13" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="AF13" s="20" t="s">
-        <v>393</v>
-      </c>
       <c r="AG13" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
@@ -3814,103 +3839,106 @@
       <c r="AM13" s="19"/>
       <c r="AN13" s="19"/>
     </row>
-    <row r="14" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
+        <v>390</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>393</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>394</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="F14" s="20" t="s">
         <v>395</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="G14" s="20" t="s">
         <v>396</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="H14" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>397</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="J14" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="L14" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;ul&gt;&lt;li&gt; Boston Medical Center is a quarternary academic medical center in Boston, MA.&lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="M14" s="20" t="s">
         <v>398</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="N14" s="20" t="s">
         <v>399</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="O14" s="20" t="s">
         <v>400</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I14" s="20" t="s">
+      <c r="P14" s="20" t="s">
         <v>401</v>
       </c>
-      <c r="J14" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="K14" s="20" t="s">
+      <c r="Q14" s="20" t="s">
         <v>402</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20" t="s">
+      <c r="R14" s="20" t="s">
         <v>403</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="S14" s="20" t="s">
         <v>404</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="T14" s="20" t="s">
         <v>405</v>
-      </c>
-      <c r="P14" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q14" s="20" t="s">
-        <v>407</v>
-      </c>
-      <c r="R14" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="S14" s="20" t="s">
-        <v>409</v>
-      </c>
-      <c r="T14" s="20" t="s">
-        <v>410</v>
       </c>
       <c r="U14" s="20" t="s">
         <v>104</v>
       </c>
       <c r="V14" s="20" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="W14" s="20" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="X14" s="28">
         <v>0</v>
       </c>
       <c r="Y14" s="20" t="s">
+        <v>408</v>
+      </c>
+      <c r="Z14" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="AA14" s="20" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB14" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="AC14" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD14" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="AE14" s="20" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF14" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="Z14" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="AA14" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="AB14" s="20" t="s">
-        <v>416</v>
-      </c>
-      <c r="AC14" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD14" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="AE14" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF14" s="20" t="s">
-        <v>418</v>
-      </c>
       <c r="AG14" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
@@ -3920,103 +3948,106 @@
       <c r="AM14" s="19"/>
       <c r="AN14" s="19"/>
     </row>
-    <row r="15" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
+        <v>414</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>417</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>418</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="G15" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I15" s="20" t="s">
         <v>420</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="J15" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="L15" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;ul&gt;&lt;li&gt; Partners HealthCare is a not-for-profit health care system that is committed to patient care, research, teaching, and service to the community locally and globally. Collaboration among our institutions and health care professionals is central to our efforts to advance our mission._x000D__x000D_Founded in 1994 by Brigham and Women's Hospital and Massachusetts General Hospital, Partners HealthCare includes community and specialty hospitals, a managed care organization, a physician network, community health centers, home care and other health-related entities. _x000D__x000D_Several of our hospitals are teaching affiliates of Harvard Medical School, and Partners is a national leader in biomedical research. &lt;/li&gt;&lt;/ul&gt;</v>
+      </c>
+      <c r="M15" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="N15" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="O15" s="20" t="s">
         <v>423</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="P15" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I15" s="20" t="s">
+      <c r="Q15" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="J15" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="K15" s="20" t="s">
+      <c r="R15" s="20" t="s">
         <v>426</v>
       </c>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20" t="s">
+      <c r="S15" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="N15" s="20" t="s">
+      <c r="T15" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="O15" s="20" t="s">
+      <c r="U15" s="20" t="s">
         <v>429</v>
       </c>
-      <c r="P15" s="20" t="s">
+      <c r="V15" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="Q15" s="20" t="s">
+      <c r="W15" s="20" t="s">
         <v>431</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="S15" s="20" t="s">
-        <v>433</v>
-      </c>
-      <c r="T15" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="U15" s="20" t="s">
-        <v>435</v>
-      </c>
-      <c r="V15" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="W15" s="20" t="s">
-        <v>437</v>
       </c>
       <c r="X15" s="28">
         <v>50000</v>
       </c>
       <c r="Y15" s="20" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z15" s="20" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA15" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="AB15" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="AC15" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="AD15" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE15" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="AF15" s="20" t="s">
         <v>438</v>
       </c>
-      <c r="Z15" s="20" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA15" s="20" t="s">
-        <v>440</v>
-      </c>
-      <c r="AB15" s="20" t="s">
-        <v>441</v>
-      </c>
-      <c r="AC15" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD15" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="AE15" s="20" t="s">
-        <v>443</v>
-      </c>
-      <c r="AF15" s="20" t="s">
-        <v>444</v>
-      </c>
       <c r="AG15" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>

--- a/carezoom_frontend/entries3.xlsx
+++ b/carezoom_frontend/entries3.xlsx
@@ -2483,7 +2483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2492,8 +2492,8 @@
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="12" width="17.1640625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="82.83203125" customWidth="1"/>
+    <col min="11" max="12" width="17.1640625" customWidth="1"/>
+    <col min="13" max="13" width="47.83203125" customWidth="1"/>
     <col min="14" max="14" width="76.1640625" customWidth="1"/>
     <col min="15" max="18" width="16.5" customWidth="1"/>
     <col min="19" max="41" width="14.5" customWidth="1"/>

--- a/carezoom_frontend/entries3.xlsx
+++ b/carezoom_frontend/entries3.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="455">
   <si>
     <t>title</t>
   </si>
@@ -1927,6 +1927,12 @@
   <si>
     <t xml:space="preserve"> ▪ Boston Medical Center is the largest safety net hospital in the New England region.</t>
   </si>
+  <si>
+    <t>Search Terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tags </t>
+  </si>
 </sst>
 </file>
 
@@ -1982,7 +1988,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2076,6 +2082,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF887"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2099,7 +2111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2191,7 +2203,10 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2481,9 +2496,9 @@
   </sheetPr>
   <dimension ref="A1:AO1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2493,8 +2508,8 @@
     <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="10" width="19.5" customWidth="1"/>
     <col min="11" max="12" width="17.1640625" customWidth="1"/>
-    <col min="13" max="13" width="47.83203125" customWidth="1"/>
-    <col min="14" max="14" width="76.1640625" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
     <col min="15" max="18" width="16.5" customWidth="1"/>
     <col min="19" max="41" width="14.5" customWidth="1"/>
   </cols>
@@ -2530,13 +2545,13 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="33" t="s">
         <v>436</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="33" t="s">
         <v>435</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -2614,8 +2629,12 @@
       <c r="A2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2637,13 +2656,13 @@
       <c r="J2" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="33" t="s">
         <v>112</v>
       </c>
       <c r="N2" s="4" t="s">
